--- a/prosym07_1966/7.xlsx
+++ b/prosym07_1966/7.xlsx
@@ -139,7 +139,7 @@
     <t>WPRO1966toc.pdf</t>
   </si>
   <si>
-    <t>セッションA</t>
+    <t>A</t>
   </si>
   <si>
     <t>WPRO1966A00.pdf</t>
@@ -271,7 +271,7 @@
     <t>A-76</t>
   </si>
   <si>
-    <t>セッションB</t>
+    <t>B</t>
   </si>
   <si>
     <t>WPRO1966B00.pdf</t>
@@ -382,7 +382,7 @@
     <t>B-56</t>
   </si>
   <si>
-    <t>セッションC</t>
+    <t>C</t>
   </si>
   <si>
     <t>WPRO1966C00.pdf</t>
@@ -514,7 +514,7 @@
     <t>C-114</t>
   </si>
   <si>
-    <t>セッションD</t>
+    <t>D</t>
   </si>
   <si>
     <t>WPRO1966D00.pdf</t>
@@ -622,7 +622,7 @@
     <t>D-53</t>
   </si>
   <si>
-    <t>セッション自由討論</t>
+    <t>自由討論</t>
   </si>
   <si>
     <t>WPRO1966F00.pdf</t>

--- a/prosym07_1966/7.xlsx
+++ b/prosym07_1966/7.xlsx
@@ -702,9 +702,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/mm"/>
+    <numFmt numFmtId="164" formatCode="yyyy/MM/dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -715,6 +715,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -742,12 +746,12 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1061,14 +1065,14 @@
         <v>28</v>
       </c>
       <c r="E2" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="J2" s="1"/>
       <c r="O2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P2" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q2" s="1">
         <v>0.0</v>
@@ -1084,7 +1088,7 @@
       </c>
       <c r="X2" s="1"/>
       <c r="Z2" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="3">
@@ -1098,14 +1102,14 @@
         <v>28</v>
       </c>
       <c r="E3" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="J3" s="1"/>
       <c r="O3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="P3" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q3" s="1">
         <v>0.0</v>
@@ -1121,7 +1125,7 @@
       </c>
       <c r="X3" s="1"/>
       <c r="Z3" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="4">
@@ -1135,7 +1139,7 @@
         <v>28</v>
       </c>
       <c r="E4" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>35</v>
@@ -1144,7 +1148,7 @@
         <v>36</v>
       </c>
       <c r="P4" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q4" s="1">
         <v>0.0</v>
@@ -1160,7 +1164,7 @@
       </c>
       <c r="X4" s="1"/>
       <c r="Z4" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="5">
@@ -1174,7 +1178,7 @@
         <v>28</v>
       </c>
       <c r="E5" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>38</v>
@@ -1183,7 +1187,7 @@
         <v>39</v>
       </c>
       <c r="P5" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q5" s="1">
         <v>0.0</v>
@@ -1199,7 +1203,7 @@
       </c>
       <c r="X5" s="1"/>
       <c r="Z5" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="6">
@@ -1213,14 +1217,14 @@
         <v>28</v>
       </c>
       <c r="E6" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="J6" s="1"/>
       <c r="O6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P6" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q6" s="1">
         <v>0.0</v>
@@ -1236,7 +1240,7 @@
       </c>
       <c r="X6" s="1"/>
       <c r="Z6" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="7">
@@ -1250,14 +1254,14 @@
         <v>28</v>
       </c>
       <c r="E7" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="J7" s="1"/>
       <c r="O7" s="1" t="s">
         <v>43</v>
       </c>
       <c r="P7" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q7" s="1">
         <v>0.0</v>
@@ -1273,7 +1277,7 @@
       </c>
       <c r="X7" s="1"/>
       <c r="Z7" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="8">
@@ -1287,7 +1291,7 @@
         <v>28</v>
       </c>
       <c r="E8" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>45</v>
@@ -1299,7 +1303,7 @@
         <v>47</v>
       </c>
       <c r="P8" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q8" s="1">
         <v>0.0</v>
@@ -1320,7 +1324,7 @@
         <v>49</v>
       </c>
       <c r="Z8" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="9">
@@ -1334,7 +1338,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>51</v>
@@ -1346,7 +1350,7 @@
         <v>53</v>
       </c>
       <c r="P9" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q9" s="1">
         <v>0.0</v>
@@ -1367,7 +1371,7 @@
         <v>55</v>
       </c>
       <c r="Z9" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="10">
@@ -1381,7 +1385,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>57</v>
@@ -1393,7 +1397,7 @@
         <v>59</v>
       </c>
       <c r="P10" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q10" s="1">
         <v>0.0</v>
@@ -1414,7 +1418,7 @@
         <v>61</v>
       </c>
       <c r="Z10" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="11">
@@ -1428,7 +1432,7 @@
         <v>28</v>
       </c>
       <c r="E11" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>63</v>
@@ -1440,7 +1444,7 @@
         <v>65</v>
       </c>
       <c r="P11" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q11" s="1">
         <v>0.0</v>
@@ -1461,7 +1465,7 @@
         <v>67</v>
       </c>
       <c r="Z11" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="12">
@@ -1475,7 +1479,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>69</v>
@@ -1487,7 +1491,7 @@
         <v>71</v>
       </c>
       <c r="P12" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q12" s="1">
         <v>0.0</v>
@@ -1508,7 +1512,7 @@
         <v>73</v>
       </c>
       <c r="Z12" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="13">
@@ -1522,7 +1526,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>75</v>
@@ -1534,7 +1538,7 @@
         <v>77</v>
       </c>
       <c r="P13" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q13" s="1">
         <v>0.0</v>
@@ -1555,7 +1559,7 @@
         <v>79</v>
       </c>
       <c r="Z13" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="14">
@@ -1569,7 +1573,7 @@
         <v>28</v>
       </c>
       <c r="E14" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>81</v>
@@ -1581,7 +1585,7 @@
         <v>83</v>
       </c>
       <c r="P14" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q14" s="1">
         <v>0.0</v>
@@ -1602,7 +1606,7 @@
         <v>85</v>
       </c>
       <c r="Z14" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="15">
@@ -1616,14 +1620,14 @@
         <v>28</v>
       </c>
       <c r="E15" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="J15" s="1"/>
       <c r="O15" s="1" t="s">
         <v>87</v>
       </c>
       <c r="P15" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q15" s="1">
         <v>0.0</v>
@@ -1639,7 +1643,7 @@
       </c>
       <c r="X15" s="3"/>
       <c r="Z15" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="16">
@@ -1653,7 +1657,7 @@
         <v>28</v>
       </c>
       <c r="E16" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>89</v>
@@ -1665,7 +1669,7 @@
         <v>91</v>
       </c>
       <c r="P16" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q16" s="1">
         <v>0.0</v>
@@ -1686,7 +1690,7 @@
         <v>93</v>
       </c>
       <c r="Z16" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="17">
@@ -1700,7 +1704,7 @@
         <v>28</v>
       </c>
       <c r="E17" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>95</v>
@@ -1712,7 +1716,7 @@
         <v>97</v>
       </c>
       <c r="P17" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q17" s="1">
         <v>0.0</v>
@@ -1733,7 +1737,7 @@
         <v>99</v>
       </c>
       <c r="Z17" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="18">
@@ -1747,7 +1751,7 @@
         <v>28</v>
       </c>
       <c r="E18" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>101</v>
@@ -1759,7 +1763,7 @@
         <v>103</v>
       </c>
       <c r="P18" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q18" s="1">
         <v>0.0</v>
@@ -1780,7 +1784,7 @@
         <v>105</v>
       </c>
       <c r="Z18" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="19">
@@ -1794,7 +1798,7 @@
         <v>28</v>
       </c>
       <c r="E19" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>107</v>
@@ -1806,7 +1810,7 @@
         <v>109</v>
       </c>
       <c r="P19" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q19" s="1">
         <v>0.0</v>
@@ -1827,7 +1831,7 @@
         <v>111</v>
       </c>
       <c r="Z19" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="20">
@@ -1841,7 +1845,7 @@
         <v>28</v>
       </c>
       <c r="E20" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>113</v>
@@ -1853,7 +1857,7 @@
         <v>115</v>
       </c>
       <c r="P20" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q20" s="1">
         <v>0.0</v>
@@ -1874,7 +1878,7 @@
         <v>117</v>
       </c>
       <c r="Z20" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="21">
@@ -1888,7 +1892,7 @@
         <v>28</v>
       </c>
       <c r="E21" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>119</v>
@@ -1900,7 +1904,7 @@
         <v>121</v>
       </c>
       <c r="P21" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q21" s="1">
         <v>0.0</v>
@@ -1918,7 +1922,7 @@
         <v>122</v>
       </c>
       <c r="Z21" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="22">
@@ -1932,14 +1936,14 @@
         <v>28</v>
       </c>
       <c r="E22" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="J22" s="1"/>
       <c r="O22" s="1" t="s">
         <v>124</v>
       </c>
       <c r="P22" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q22" s="1">
         <v>0.0</v>
@@ -1955,7 +1959,7 @@
       </c>
       <c r="X22" s="3"/>
       <c r="Z22" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="23">
@@ -1969,7 +1973,7 @@
         <v>28</v>
       </c>
       <c r="E23" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>126</v>
@@ -1981,7 +1985,7 @@
         <v>128</v>
       </c>
       <c r="P23" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q23" s="1">
         <v>0.0</v>
@@ -2002,7 +2006,7 @@
         <v>130</v>
       </c>
       <c r="Z23" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="24">
@@ -2016,7 +2020,7 @@
         <v>28</v>
       </c>
       <c r="E24" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>132</v>
@@ -2028,7 +2032,7 @@
         <v>134</v>
       </c>
       <c r="P24" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q24" s="1">
         <v>0.0</v>
@@ -2049,7 +2053,7 @@
         <v>136</v>
       </c>
       <c r="Z24" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="25">
@@ -2063,7 +2067,7 @@
         <v>28</v>
       </c>
       <c r="E25" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>138</v>
@@ -2075,7 +2079,7 @@
         <v>140</v>
       </c>
       <c r="P25" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q25" s="1">
         <v>0.0</v>
@@ -2096,7 +2100,7 @@
         <v>142</v>
       </c>
       <c r="Z25" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="26">
@@ -2110,7 +2114,7 @@
         <v>28</v>
       </c>
       <c r="E26" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>144</v>
@@ -2122,7 +2126,7 @@
         <v>146</v>
       </c>
       <c r="P26" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q26" s="1">
         <v>0.0</v>
@@ -2143,7 +2147,7 @@
         <v>148</v>
       </c>
       <c r="Z26" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="27">
@@ -2157,7 +2161,7 @@
         <v>28</v>
       </c>
       <c r="E27" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>150</v>
@@ -2169,7 +2173,7 @@
         <v>152</v>
       </c>
       <c r="P27" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q27" s="1">
         <v>0.0</v>
@@ -2190,7 +2194,7 @@
         <v>154</v>
       </c>
       <c r="Z27" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="28">
@@ -2204,7 +2208,7 @@
         <v>28</v>
       </c>
       <c r="E28" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>156</v>
@@ -2216,7 +2220,7 @@
         <v>158</v>
       </c>
       <c r="P28" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q28" s="1">
         <v>0.0</v>
@@ -2237,7 +2241,7 @@
         <v>160</v>
       </c>
       <c r="Z28" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="29">
@@ -2251,7 +2255,7 @@
         <v>28</v>
       </c>
       <c r="E29" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>162</v>
@@ -2263,7 +2267,7 @@
         <v>164</v>
       </c>
       <c r="P29" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q29" s="1">
         <v>0.0</v>
@@ -2284,7 +2288,7 @@
         <v>166</v>
       </c>
       <c r="Z29" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="30">
@@ -2298,14 +2302,14 @@
         <v>28</v>
       </c>
       <c r="E30" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="J30" s="1"/>
       <c r="O30" s="1" t="s">
         <v>168</v>
       </c>
       <c r="P30" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q30" s="1">
         <v>0.0</v>
@@ -2321,7 +2325,7 @@
       </c>
       <c r="X30" s="3"/>
       <c r="Z30" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="31">
@@ -2335,7 +2339,7 @@
         <v>28</v>
       </c>
       <c r="E31" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>170</v>
@@ -2347,7 +2351,7 @@
         <v>172</v>
       </c>
       <c r="P31" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q31" s="1">
         <v>0.0</v>
@@ -2368,7 +2372,7 @@
         <v>174</v>
       </c>
       <c r="Z31" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="32">
@@ -2382,7 +2386,7 @@
         <v>28</v>
       </c>
       <c r="E32" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>176</v>
@@ -2394,7 +2398,7 @@
         <v>178</v>
       </c>
       <c r="P32" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q32" s="1">
         <v>0.0</v>
@@ -2415,7 +2419,7 @@
         <v>180</v>
       </c>
       <c r="Z32" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="33">
@@ -2429,7 +2433,7 @@
         <v>28</v>
       </c>
       <c r="E33" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>182</v>
@@ -2441,7 +2445,7 @@
         <v>184</v>
       </c>
       <c r="P33" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q33" s="1">
         <v>0.0</v>
@@ -2462,7 +2466,7 @@
         <v>186</v>
       </c>
       <c r="Z33" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="34">
@@ -2476,7 +2480,7 @@
         <v>28</v>
       </c>
       <c r="E34" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>188</v>
@@ -2488,7 +2492,7 @@
         <v>190</v>
       </c>
       <c r="P34" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q34" s="1">
         <v>0.0</v>
@@ -2509,7 +2513,7 @@
         <v>192</v>
       </c>
       <c r="Z34" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="35">
@@ -2523,7 +2527,7 @@
         <v>28</v>
       </c>
       <c r="E35" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>194</v>
@@ -2535,7 +2539,7 @@
         <v>195</v>
       </c>
       <c r="P35" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q35" s="1">
         <v>0.0</v>
@@ -2556,7 +2560,7 @@
         <v>197</v>
       </c>
       <c r="Z35" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="36">
@@ -2570,7 +2574,7 @@
         <v>28</v>
       </c>
       <c r="E36" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>126</v>
@@ -2582,7 +2586,7 @@
         <v>200</v>
       </c>
       <c r="P36" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q36" s="1">
         <v>0.0</v>
@@ -2603,7 +2607,7 @@
         <v>202</v>
       </c>
       <c r="Z36" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="37">
@@ -2617,14 +2621,14 @@
         <v>28</v>
       </c>
       <c r="E37" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="J37" s="1"/>
       <c r="O37" s="1" t="s">
         <v>204</v>
       </c>
       <c r="P37" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q37" s="1">
         <v>0.0</v>
@@ -2639,7 +2643,7 @@
         <v>1966.0</v>
       </c>
       <c r="Z37" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="38">
@@ -2653,7 +2657,7 @@
         <v>28</v>
       </c>
       <c r="E38" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>206</v>
@@ -2665,7 +2669,7 @@
         <v>208</v>
       </c>
       <c r="P38" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q38" s="1">
         <v>0.0</v>
@@ -2686,7 +2690,7 @@
         <v>210</v>
       </c>
       <c r="Z38" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="39">
@@ -2700,14 +2704,14 @@
         <v>28</v>
       </c>
       <c r="E39" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="J39" s="1"/>
       <c r="O39" s="1" t="s">
         <v>212</v>
       </c>
       <c r="P39" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q39" s="1">
         <v>0.0</v>
@@ -2723,7 +2727,7 @@
       </c>
       <c r="X39" s="3"/>
       <c r="Z39" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="40">
@@ -2737,7 +2741,7 @@
         <v>28</v>
       </c>
       <c r="E40" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="H40" s="5"/>
       <c r="J40" s="1" t="s">
@@ -2747,7 +2751,7 @@
         <v>215</v>
       </c>
       <c r="P40" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q40" s="1">
         <v>0.0</v>
@@ -2768,7 +2772,7 @@
         <v>217</v>
       </c>
       <c r="Z40" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="41">
@@ -2782,7 +2786,7 @@
         <v>28</v>
       </c>
       <c r="E41" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="H41" s="5"/>
       <c r="J41" s="1"/>
@@ -2790,7 +2794,7 @@
         <v>219</v>
       </c>
       <c r="P41" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q41" s="1">
         <v>0.0</v>
@@ -2806,7 +2810,7 @@
       </c>
       <c r="X41" s="3"/>
       <c r="Z41" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="42">
@@ -2820,7 +2824,7 @@
         <v>28</v>
       </c>
       <c r="E42" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>221</v>
@@ -2832,7 +2836,7 @@
         <v>223</v>
       </c>
       <c r="P42" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q42" s="1">
         <v>0.0</v>
@@ -2853,7 +2857,7 @@
         <v>225</v>
       </c>
       <c r="Z42" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
     <row r="43">
@@ -2867,13 +2871,13 @@
         <v>28</v>
       </c>
       <c r="E43" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>227</v>
       </c>
       <c r="P43" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
       <c r="Q43" s="1">
         <v>0.0</v>
@@ -2888,7 +2892,7 @@
         <v>1966.0</v>
       </c>
       <c r="Z43" s="2">
-        <v>24108.0</v>
+        <v>24119.0</v>
       </c>
     </row>
   </sheetData>
